--- a/Todolisttestcase.xlsx
+++ b/Todolisttestcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f519fc8691949df7/Documents/ParkingCostCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC104804091E79665ADE58FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC2851E-A283-49F5-AE87-399B7B6EA11A}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC104804091E79665ADE58FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F50FC0A-B0F5-47FB-A10D-DCCF7515928B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -196,6 +196,36 @@
   </si>
   <si>
     <t>By clicking on the arrow button of the left side of the textbox, enterd list is displayed as striking text which means it is completed.</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Verify text is striking when selecting
+a text</t>
+  </si>
+  <si>
+    <t>test should be striked when selecting a
+text</t>
+  </si>
+  <si>
+    <t>test is striked when selecting a
+text</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Verify text is not cleared while 
+it is not striked</t>
+  </si>
+  <si>
+    <t>Text is should not be cleared while
+while it is not striked.</t>
+  </si>
+  <si>
+    <t>text is not cleared while 
+it is not striked</t>
   </si>
 </sst>
 </file>
@@ -251,6 +281,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,6 +752,46 @@
         <v>42</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Todolisttestcase.xlsx
+++ b/Todolisttestcase.xlsx
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
